--- a/test_物件管理/已完成/test_契約管理_随時対応_保管場所使用承諾証明書発行.xlsx
+++ b/test_物件管理/已完成/test_契約管理_随時対応_保管場所使用承諾証明書発行.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2949" uniqueCount="781">
   <si>
     <t>URL:</t>
   </si>
@@ -2671,6 +2671,9 @@
   </si>
   <si>
     <t>SELECT created_date,updated_date,is_deleted,deleted_date,code,category,name,kana,post_code,address1,address2,tel,fax,email,comment,personal_gender,personal_birthday,corporate_business_type,corporate_web_site,corporate_president,corporate_staff_name,corporate_staff_department,corporate_staff_position,corporate_capital,corporate_turnover,workplace_name,workplace_post_code,workplace_address1,workplace_address2,workplace_tel,workplace_fax,contact_name,contact_kana,contact_post_code,contact_address1,contact_address2,contact_tel,contact_fax,contact_relation,delivery_honorific,delivery_name,delivery_kana,delivery_post_code,delivery_address1,delivery_address2,delivery_tel,delivery_fax,guarantor_name,guarantor_kana,guarantor_birthday,guarantor_post_code,guarantor_address1,guarantor_address2,guarantor_tel,guarantor_fax,guarantor_relation,guarantor_comment,status,corporate_staff_kana,corporate_staff_phone,corporate_staff_email,corporate_staff_fax,corporate_staff_tel,workplace_comment,personal_phone,corporate_user_address1,corporate_user_kana,corporate_user_name,corporate_user_post_code,corporate_user_tel,payee_bank_account_id,ap_comment,foundation_date,nominee_different_reason,tel2,personal_annual_income,corporate_user_fax,corporate_user_phone,workplace_business_type,workplace_department,workplace_kana,workplace_tel2,workplace_web_site,contact_phone,contact_tel2,delivery_tel2,emergency_name,emergency_phone,emergency_relation,has_guarantor,workplace_without,corporate_car_user_base,corporate_car_user_base_type,payment_kbn,workplace_certification,nominee,inspection_subscription_comment,simple_subscription_comment,contact_comment,sms_phone,personal_user_address1,personal_user_address2,personal_user_comment,personal_user_fax,personal_user_kana,personal_user_kbn,personal_user_name,personal_user_phone,personal_user_post_code,personal_user_relation,personal_user_tel,corporate_delivery_type,personal_delivery_type,delivery_comment,delivery_relation,emergency_name2,emergency_phone2,emergency_relation2,corporate_staff_comment,corporate_car_use_base_address2,corporate_car_use_base_comment,corporate_car_use_base_fax,corporate_car_use_base_kana,corporate_car_use_base_name,corporate_car_use_base_post_code,corporate_car_use_base_tel,corporate_user_address2,corporate_user_comment,corporate_user_relation,contract_agency_address1,contract_agency_address2,contract_agency_code,contract_agency_comment,contract_agency_fax,contract_agency_kana,contract_agency_name,contract_agency_staff_kana,contract_agency_staff_name,contract_agency_staff_phone,contract_agency_tel,gmo_member_id FROM ap_contractor WHERE 1=1  LIMIT 100</t>
+  </si>
+  <si>
+    <t>is_auto_update</t>
   </si>
 </sst>
 </file>
@@ -3739,8 +3742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EL131"/>
   <sheetViews>
-    <sheetView topLeftCell="Q102" workbookViewId="0">
-      <selection activeCell="X145" sqref="X145"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="AA136" sqref="AA136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12430,6 +12433,9 @@
       <c r="AA125" s="56" t="s">
         <v>573</v>
       </c>
+      <c r="AB125" s="137" t="s">
+        <v>780</v>
+      </c>
     </row>
     <row r="126" spans="1:142">
       <c r="B126" s="58">
@@ -12510,6 +12516,9 @@
       <c r="AA126" s="58">
         <v>1</v>
       </c>
+      <c r="AB126" s="165">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:142">
       <c r="B127" s="58">
@@ -12590,6 +12599,9 @@
       <c r="AA127" s="58">
         <v>1</v>
       </c>
+      <c r="AB127" s="165">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" spans="1:142" s="53" customFormat="1">
       <c r="B128" s="58" t="s">
@@ -12670,8 +12682,11 @@
       <c r="AA128" s="58">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="2:27" s="53" customFormat="1">
+      <c r="AB128" s="165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="2:28" s="53" customFormat="1">
       <c r="B129" s="58" t="s">
         <v>257</v>
       </c>
@@ -12750,8 +12765,11 @@
       <c r="AA129" s="58">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="2:27" s="143" customFormat="1"/>
+      <c r="AB129" s="165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:28" s="143" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
@@ -18211,8 +18229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EM20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
